--- a/add-info-dmp/ig/StructureDefinition-Identifiant.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-Identifiant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
